--- a/logs/test_log_contrast.xlsx
+++ b/logs/test_log_contrast.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>background_color</t>
   </si>
@@ -31,74 +31,31 @@
     <t>fix_remarks</t>
   </si>
   <si>
-    <t>HEX: #5996d9</t>
-  </si>
-  <si>
-    <t>HEX: #333333</t>
-  </si>
-  <si>
-    <t>&lt;input type="text" value="" maxlength="128" name="s" id="search_key" size="15" placeholder="Search - Keyword, Phrase" class="form-text searchText ui-autocomplete-input" autocomplete="off"&gt;</t>
-  </si>
-  <si>
-    <t>4.08:1</t>
-  </si>
-  <si>
-    <t>Increase contrast by at least 10.29% to pass.</t>
-  </si>
-  <si>
-    <t>HEX: #fda103</t>
+    <t>HEX: #04aa6d</t>
   </si>
   <si>
     <t>HEX: #ffffff</t>
   </si>
   <si>
-    <t>&lt;input type="submit" name="op" value="Search" id="edit-submit1" class="form-submit"&gt;</t>
-  </si>
-  <si>
-    <t>2.04:1</t>
-  </si>
-  <si>
-    <t>Increase contrast by at least 120.59% to pass.</t>
-  </si>
-  <si>
-    <t>HEX: #8e8d8d</t>
-  </si>
-  <si>
-    <t>&lt;a href="/home?qt-_none_=0#qt-_none_" id="quicktabs-tab-_none_-0" class="active ajax-processed quicktabs-loaded jquery-once-2-processed"&gt;News&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>3.3:1</t>
-  </si>
-  <si>
-    <t>Increase contrast by at least 36.36% to pass.</t>
-  </si>
-  <si>
-    <t>HEX: #131313</t>
-  </si>
-  <si>
-    <t>HEX: #727171</t>
-  </si>
-  <si>
-    <t>&lt;div class="last-review"&gt; Last reviewed and updated on  06 Sep, 2019&lt;span style="color:#131313;"&gt; 
- NPI 2
-&lt;/span&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>3.81:1</t>
-  </si>
-  <si>
-    <t>Increase contrast by at least 18.11% to pass.</t>
-  </si>
-  <si>
-    <t>&lt;span style="color:#131313;"&gt; 
- NPI 2
-&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>Increase contrast by at least 350% to pass.</t>
+    <t>&lt;a id="w3loginbtn" class="w3-bar-item w3-btn bar-item-hover w3-right" style="display: inline; width: 130px; background-color: rgb(4, 170, 109); color: white; border-radius: 25px;" href="https://profil</t>
+  </si>
+  <si>
+    <t>3.01:1</t>
+  </si>
+  <si>
+    <t>Increase contrast by at least 49.5% to pass.</t>
+  </si>
+  <si>
+    <t>HEX: #ff0000</t>
+  </si>
+  <si>
+    <t>&lt;span class="pythonnumbercolor" style="color:red"&gt;1&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>3.99:1</t>
+  </si>
+  <si>
+    <t>Increase contrast by at least 12.78% to pass.</t>
   </si>
 </sst>
 </file>
@@ -430,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,70 +429,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/logs/test_log_contrast.xlsx
+++ b/logs/test_log_contrast.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>background_color</t>
   </si>
@@ -31,31 +31,22 @@
     <t>fix_remarks</t>
   </si>
   <si>
-    <t>HEX: #04aa6d</t>
-  </si>
-  <si>
     <t>HEX: #ffffff</t>
   </si>
   <si>
-    <t>&lt;a id="w3loginbtn" class="w3-bar-item w3-btn bar-item-hover w3-right" style="display: inline; width: 130px; background-color: rgb(4, 170, 109); color: white; border-radius: 25px;" href="https://profil</t>
-  </si>
-  <si>
-    <t>3.01:1</t>
-  </si>
-  <si>
-    <t>Increase contrast by at least 49.5% to pass.</t>
-  </si>
-  <si>
-    <t>HEX: #ff0000</t>
-  </si>
-  <si>
-    <t>&lt;span class="pythonnumbercolor" style="color:red"&gt;1&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>3.99:1</t>
-  </si>
-  <si>
-    <t>Increase contrast by at least 12.78% to pass.</t>
+    <t>&lt;a class="color-link" href="/?themecolor=default"&gt;.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>Increase contrast by at least 350% to pass.</t>
+  </si>
+  <si>
+    <t>HEX: #000000</t>
+  </si>
+  <si>
+    <t>&lt;a class="color-link" href="/?themecolor=blacktheme"&gt;.&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -415,33 +406,33 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
